--- a/backend_tests/z_input_files/test_spreadsheet_2.xlsx
+++ b/backend_tests/z_input_files/test_spreadsheet_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="110">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t xml:space="preserve">MCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaled factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
   </si>
   <si>
     <t xml:space="preserve">Typologies of farms defined by patterns of crops </t>
@@ -768,7 +780,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.37"/>
   </cols>
@@ -918,14 +930,14 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="38.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="38.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.37"/>
   </cols>
   <sheetData>
@@ -2085,7 +2097,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.16"/>
@@ -2347,10 +2359,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2359,156 +2371,144 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.37"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="8" t="s">
+      <c r="B1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
+      <c r="C1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C8" s="12" t="n">
         <v>0.151660472365424</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D8" s="13" t="n">
         <v>0.119641076769691</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E8" s="14" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>0.191674975074776</v>
-      </c>
-      <c r="E7" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>0.0249252243270189</v>
-      </c>
-      <c r="E8" s="17" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="15" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="16" t="n">
-        <v>0.038218677301429</v>
+        <v>0.191674975074776</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <v>0.4203332933701</v>
+        <v>98</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D10" s="16" t="n">
-        <v>0.206048521103357</v>
+        <v>0.0249252243270189</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="18" t="n">
-        <v>0.428006234264477</v>
+        <v>99</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D11" s="16" t="n">
-        <v>0.291625124626122</v>
+        <v>0.038218677301429</v>
       </c>
       <c r="E11" s="17" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="C12" s="18" t="n">
+        <v>0.4203332933701</v>
       </c>
       <c r="D12" s="16" t="n">
-        <v>0.0510136257892988</v>
+        <v>0.206048521103357</v>
       </c>
       <c r="E12" s="17" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="15" t="n">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>0.428006234264477</v>
       </c>
       <c r="D13" s="16" t="n">
-        <v>0.0768527750083084</v>
+        <v>0.291625124626122</v>
       </c>
       <c r="E13" s="17" t="n">
         <v>0.01</v>
@@ -2516,37 +2516,65 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="16" t="n">
+        <v>0.0510136257892988</v>
+      </c>
+      <c r="E14" s="17" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="17" t="n">
+      <c r="D15" s="16" t="n">
+        <v>0.0768527750083084</v>
+      </c>
+      <c r="E15" s="17" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17" t="n">
         <v>0.68</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="19" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="19" t="n">
+      <c r="C17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D17" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E17" s="21" t="n">
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2578,7 +2606,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>29</v>
@@ -2613,13 +2641,13 @@
         <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>213</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,7 +2708,7 @@
   </sheetPr>
   <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2693,7 +2721,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2702,7 +2730,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22"/>
       <c r="C4" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2719,7 +2747,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>84</v>

--- a/backend_tests/z_input_files/test_spreadsheet_2.xlsx
+++ b/backend_tests/z_input_files/test_spreadsheet_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="102">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -300,58 +300,34 @@
     <t xml:space="preserve">MCR2</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scaled factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typologies of farms defined by patterns of crops </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land use pattern (%)</t>
+    <t xml:space="preserve">LU</t>
   </si>
   <si>
     <t xml:space="preserve">Crop / Farm</t>
   </si>
   <si>
-    <t xml:space="preserve">Green bean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pepper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watermelon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuchini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lettuce</t>
-  </si>
-  <si>
     <t xml:space="preserve">AgrarianRegionID</t>
   </si>
   <si>
-    <t xml:space="preserve">LU</t>
+    <t xml:space="preserve">AR1</t>
   </si>
   <si>
     <t xml:space="preserve">ha</t>
   </si>
   <si>
-    <t xml:space="preserve">Typologies of agrarian regions defined by patterns of farms</t>
+    <t xml:space="preserve">AR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR6</t>
   </si>
   <si>
     <t xml:space="preserve">Farm / AgrarianRegion</t>
@@ -361,12 +337,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -429,7 +404,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,24 +413,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
-        <bgColor rgb="FF808000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -467,13 +430,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -595,23 +551,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -619,54 +579,54 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -675,23 +635,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,12 +701,12 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFBF9000"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -780,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.37"/>
   </cols>
@@ -937,7 +893,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="38.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.37"/>
   </cols>
   <sheetData>
@@ -2359,55 +2315,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>94</v>
-      </c>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
-        <v>95</v>
-      </c>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
@@ -2416,9 +2363,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>84</v>
@@ -2460,7 +2407,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -2473,107 +2420,30 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="15" t="n">
+      <c r="B11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="16" t="n">
-        <v>0.038218677301429</v>
-      </c>
-      <c r="E11" s="17" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="18" t="n">
-        <v>0.4203332933701</v>
-      </c>
-      <c r="D12" s="16" t="n">
-        <v>0.206048521103357</v>
-      </c>
-      <c r="E12" s="17" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="18" t="n">
-        <v>0.428006234264477</v>
-      </c>
-      <c r="D13" s="16" t="n">
-        <v>0.291625124626122</v>
-      </c>
-      <c r="E13" s="17" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="15" t="n">
+      <c r="D11" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="16" t="n">
-        <v>0.0510136257892988</v>
-      </c>
-      <c r="E14" s="17" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16" t="n">
-        <v>0.0768527750083084</v>
-      </c>
-      <c r="E15" s="17" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21" t="n">
+      <c r="E11" s="20" t="n">
         <v>0.04</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C5:E5"/>
+  <mergeCells count="1">
     <mergeCell ref="C6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2593,8 +2463,8 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2606,7 +2476,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>29</v>
@@ -2633,61 +2503,106 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>213</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>28609</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
+      <c r="E3" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>12073</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="E4" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>10160</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
+      <c r="E5" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>341</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
+      <c r="E6" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>384</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2709,34 +2624,32 @@
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.37"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
-        <v>108</v>
-      </c>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="22"/>
-      <c r="C4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="22"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="21"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="22" t="s">
+        <v>91</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
@@ -2747,7 +2660,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>84</v>
@@ -2760,8 +2673,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="24" t="n">
-        <v>1</v>
+      <c r="B7" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>0</v>
@@ -2774,8 +2687,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="24" t="n">
-        <v>2</v>
+      <c r="B8" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>0.15</v>
@@ -2788,8 +2701,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="24" t="n">
-        <v>3</v>
+      <c r="B9" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>0.19</v>
@@ -2802,8 +2715,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="24" t="n">
-        <v>4</v>
+      <c r="B10" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="C10" s="26" t="n">
         <v>0.03</v>
@@ -2816,8 +2729,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="24" t="n">
-        <v>5</v>
+      <c r="B11" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="C11" s="26" t="n">
         <v>0</v>
@@ -2830,8 +2743,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="28" t="n">
-        <v>6</v>
+      <c r="B12" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="C12" s="29" t="n">
         <v>0</v>
@@ -2844,9 +2757,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:E4"/>
+  <mergeCells count="1">
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend_tests/z_input_files/test_spreadsheet_2.xlsx
+++ b/backend_tests/z_input_files/test_spreadsheet_2.xlsx
@@ -9,11 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Processors_Crop" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Processors_Farm" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Upscale_Crop_Farm" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Processors_AgrarianRegion" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Upscale_Farm_AgrarianRegion" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="NUSAP.PM Research" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="NUSAP.PM Environmental" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="NUSAP.PM StatInfo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Processors_Crop" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Processors_Farm" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Upscale_Crop_Farm" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Processors_AgrarianRegion" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Upscale_Farm_AgrarianRegion" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="168">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -108,6 +111,189 @@
     <t xml:space="preserve">V0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheoreticalStructures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeerAcceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColleagueConsensus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EstablishedTheory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExperimentalData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllButCranks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheoreticallyBasedModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HistoricFieldData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllButRebels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComputationalModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalculatedData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompetingSchools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatisticalProcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EducatedGuess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmbryonicField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UneducatedGuess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoOpinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModelStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprehensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corroboration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiniteElementApproximation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HistoricField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransferFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UncertaintyAnalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SensitivityAnalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpertGuess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefinitionsAndStandards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataCollectionAndAnalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstitutionalCulture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskForce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DirectSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accomodation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndirectEstimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obedience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occasional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inertia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoContact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">ProdSystem</t>
   </si>
   <si>
@@ -129,6 +315,15 @@
     <t xml:space="preserve">RELATIVE TO</t>
   </si>
   <si>
+    <t xml:space="preserve">ASSESSMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIGREE MATRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIGREE</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIME</t>
   </si>
   <si>
@@ -157,6 +352,12 @@
   </si>
   <si>
     <t xml:space="preserve">LU ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatInfo</t>
   </si>
   <si>
     <t xml:space="preserve">Local_General</t>
@@ -876,28 +1077,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="38.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -913,1118 +1109,90 @@
       <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>338.297333333333</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I2" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>2289</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>36.99</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>128.436666666667</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <f aca="false">4*700</f>
-        <v>2800</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>72768</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3947</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>312.969411764706</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>441</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>102.324</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>341.08</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>61.3788235294118</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>25282</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>3213</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>118.733333333333</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>643.708116157856</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>8.75000000000001</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>29.1666666666667</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>26.65</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>9100</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>641.288160833954</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>268.658823529412</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>1932</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>36.99</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>271.858823529412</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v>135.558823529412</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="6" t="n">
-        <f aca="false">4*700</f>
-        <v>2800</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>83575</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2039,6 +1207,1460 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="32.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="38.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>338.297333333333</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>5352</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2289</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>128.436666666667</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <f aca="false">4*700</f>
+        <v>2800</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>72768</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>3947</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>312.969411764706</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>441</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>102.324</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>341.08</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>61.3788235294118</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>25282</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>3213</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>118.733333333333</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>643.708116157856</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>8.75000000000001</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>641.288160833954</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>268.658823529412</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1932</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>271.858823529412</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>135.558823529412</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <f aca="false">4*700</f>
+        <v>2800</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>83575</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2065,238 +2687,238 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0.9</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0.93</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.6</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2353,33 +2975,33 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>0.151660472365424</v>
@@ -2393,7 +3015,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="15" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C9" s="15" t="n">
         <v>0</v>
@@ -2407,7 +3029,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -2421,7 +3043,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="18" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C11" s="18" t="n">
         <v>0</v>
@@ -2456,14 +3078,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2476,133 +3098,133 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>213</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>28609</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>12073</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>10160</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>341</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>384</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2616,7 +3238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2648,33 +3270,33 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="22" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="24" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>0</v>
@@ -2688,7 +3310,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="24" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>0.15</v>
@@ -2702,7 +3324,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="24" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>0.19</v>
@@ -2716,7 +3338,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="24" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C10" s="26" t="n">
         <v>0.03</v>
@@ -2730,7 +3352,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="24" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C11" s="26" t="n">
         <v>0</v>
@@ -2744,7 +3366,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="28" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="C12" s="29" t="n">
         <v>0</v>
